--- a/file.xlsx
+++ b/file.xlsx
@@ -12,7 +12,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>10 (0%)</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -56,7 +60,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -66,6 +70,15 @@
       <c r="A1" s="0">
         <v>42491</v>
       </c>
+      <c r="B1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0">
+        <v>0</v>
+      </c>
+      <c r="D1" s="0">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <headerFooter/>

--- a/file.xlsx
+++ b/file.xlsx
@@ -12,9 +12,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>10 (0%)</t>
+    <t># группы</t>
+  </si>
+  <si>
+    <t>Количество учащихся</t>
+  </si>
+  <si>
+    <t>Кол-во уч-ся, которые имеют отрицательные отметки</t>
+  </si>
+  <si>
+    <t>Кол-во уч-ся, которые имеют много пропусков</t>
+  </si>
+  <si>
+    <t>кол-во уч-ся, у которых есть не сданные л.р.</t>
+  </si>
+  <si>
+    <t>6 (25%)</t>
+  </si>
+  <si>
+    <t>0 (0%)</t>
   </si>
 </sst>
 </file>
@@ -36,7 +54,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -44,12 +62,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="1" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="1" applyBorder="1" xfId="0">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="1" applyBorder="1" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -60,24 +92,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
         <v>42491</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>0</v>
+      <c r="B2" s="1">
+        <v>24</v>
       </c>
-      <c r="C1" s="0">
-        <v>0</v>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
       </c>
-      <c r="D1" s="0">
-        <v>9</v>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
